--- a/data/ppa.xlsx
+++ b/data/ppa.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F98635B-9FA4-454D-8BA6-A66B1B5B2729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E37800-29CD-4B1C-AE52-E2D743466727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="KR" sheetId="1" r:id="rId1"/>
     <sheet name="US" sheetId="2" r:id="rId2"/>
     <sheet name="JA" sheetId="3" r:id="rId3"/>
-    <sheet name="UK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -537,19 +536,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C809756-23A9-4ECB-9B66-BE63C5B048F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>